--- a/scripts/par.xlsx
+++ b/scripts/par.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -40,9 +40,21 @@
     <t>fieswp</t>
   </si>
   <si>
+    <t>fmp_kc</t>
+  </si>
+  <si>
+    <t>fmp_ofe</t>
+  </si>
+  <si>
+    <t>fmp_sfac</t>
+  </si>
+  <si>
     <t>fmp_vk</t>
   </si>
   <si>
+    <t>ghbk</t>
+  </si>
+  <si>
     <t>hfb</t>
   </si>
   <si>
@@ -64,9 +76,33 @@
     <t>hk6</t>
   </si>
   <si>
+    <t>laymult_drn_k</t>
+  </si>
+  <si>
+    <t>laymult_fmp_vk</t>
+  </si>
+  <si>
+    <t>laymult_hk</t>
+  </si>
+  <si>
+    <t>laymult_ss</t>
+  </si>
+  <si>
+    <t>laymult_sy</t>
+  </si>
+  <si>
+    <t>laymult_vk</t>
+  </si>
+  <si>
+    <t>rurfac</t>
+  </si>
+  <si>
     <t>sfr</t>
   </si>
   <si>
+    <t>ss1</t>
+  </si>
+  <si>
     <t>ss2</t>
   </si>
   <si>
@@ -103,112 +139,151 @@
     <t>vk6</t>
   </si>
   <si>
+    <t>zonemult_drn_k</t>
+  </si>
+  <si>
+    <t>zonemult_fmp_vk</t>
+  </si>
+  <si>
+    <t>zonemult_hk</t>
+  </si>
+  <si>
+    <t>zonemult_ss</t>
+  </si>
+  <si>
+    <t>zonemult_sy</t>
+  </si>
+  <si>
+    <t>zonemult_vk</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
-    <t>616.379 to 2505.65</t>
-  </si>
-  <si>
-    <t>0.611324 to 0.763353</t>
-  </si>
-  <si>
-    <t>0.000678787 to 0.00143153</t>
-  </si>
-  <si>
-    <t>104.357 to  1000</t>
-  </si>
-  <si>
-    <t>0.00253894 to    10</t>
-  </si>
-  <si>
-    <t>7.38875E-05 to    10</t>
-  </si>
-  <si>
-    <t>0.00014959 to    10</t>
-  </si>
-  <si>
-    <t>0.0359866 to    10</t>
-  </si>
-  <si>
-    <t>0.00223114 to    10</t>
-  </si>
-  <si>
-    <t>0.00727107 to    10</t>
-  </si>
-  <si>
-    <t>0.00176754 to 0.341679</t>
-  </si>
-  <si>
-    <t>1E-06 to 0.000180171</t>
-  </si>
-  <si>
-    <t>1E-06 to 6.51441E-05</t>
-  </si>
-  <si>
-    <t>1E-06 to 1.51865E-06</t>
-  </si>
-  <si>
-    <t>1E-06 to 0.000728139</t>
-  </si>
-  <si>
-    <t>1E-06 to 1.78514E-05</t>
-  </si>
-  <si>
-    <t>0.000288755 to 0.10335</t>
-  </si>
-  <si>
-    <t>0.0815956 to   0.1</t>
-  </si>
-  <si>
-    <t>0.0783799 to   0.1</t>
-  </si>
-  <si>
-    <t>0.0744784 to   0.1</t>
-  </si>
-  <si>
-    <t>0.0722926 to   0.1</t>
-  </si>
-  <si>
-    <t>0.077154 to   0.1</t>
-  </si>
-  <si>
-    <t>0.0775959 to   0.1</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>0.001 to   100</t>
+  </si>
+  <si>
+    <t>0.524869 to 0.947296</t>
+  </si>
+  <si>
+    <t>0.875841 to     2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.5 to 0.885873</t>
+  </si>
+  <si>
+    <t>1.12697</t>
+  </si>
+  <si>
+    <t>0.0001 to   100</t>
+  </si>
+  <si>
+    <t>0.00159597</t>
+  </si>
+  <si>
+    <t>0.284082 to  1000</t>
+  </si>
+  <si>
+    <t>33.6733</t>
+  </si>
+  <si>
+    <t>0.000887318</t>
+  </si>
+  <si>
+    <t>0.00175716 to 3.71558</t>
+  </si>
+  <si>
+    <t>6.84358E-05 to 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.3</t>
+  </si>
+  <si>
+    <t>0.0174596 to   0.1</t>
+  </si>
+  <si>
+    <t>1.13488</t>
+  </si>
+  <si>
+    <t>0.0001 to 9.43474</t>
+  </si>
+  <si>
+    <t>0.00121265 to   100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.1 to 51.0743</t>
+  </si>
+  <si>
+    <t>0.00119331 to   100</t>
+  </si>
+  <si>
+    <t>0.191628 to 20.6003</t>
+  </si>
+  <si>
+    <t>0.0242617 to 49.9645</t>
+  </si>
+  <si>
+    <t>0.00721701 to   100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.1 to   100</t>
+  </si>
+  <si>
+    <t>0.00115091 to   100</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.5</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>1E-06</t>
   </si>
   <si>
     <t xml:space="preserve">   10</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.5</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>1E-06</t>
-  </si>
-  <si>
     <t>1E-05</t>
   </si>
   <si>
-    <t>0.001</t>
+    <t xml:space="preserve">  0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  100</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1</t>
   </si>
   <si>
     <t>10000</t>
   </si>
   <si>
-    <t>0.999</t>
+    <t xml:space="preserve"> 1000</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1</t>
+    <t xml:space="preserve"> 1.25</t>
   </si>
 </sst>
 </file>
@@ -566,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,19 +672,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>422</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -617,19 +692,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -637,19 +712,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>422</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -657,19 +732,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,19 +752,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -697,19 +772,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>422</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -717,19 +792,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -737,19 +812,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -757,19 +832,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -777,19 +852,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>247</v>
+        <v>422</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -797,19 +872,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -817,19 +892,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>422</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -837,19 +912,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -857,19 +932,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>247</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -877,19 +952,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C16">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -897,19 +972,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C17">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -917,19 +992,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C18">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -937,19 +1012,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -957,19 +1032,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C20">
-        <v>422</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -977,19 +1052,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C21">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -997,19 +1072,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1017,19 +1092,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1037,19 +1112,379 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>247</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
-        <v>247</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>64</v>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>422</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>247</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>247</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>247</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>247</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>247</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>247</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>422</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>247</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>247</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>247</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>247</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
